--- a/data/trans_dic/P1802_2016_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1802_2016_2023-Clase-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1278888137855973</v>
+        <v>0.1253524406950187</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1319691790020704</v>
+        <v>0.1349190870211759</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1162117453991669</v>
+        <v>0.1198622603410383</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1934841437687266</v>
+        <v>0.1929834977104121</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1304287976249616</v>
+        <v>0.1310287524250354</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1699394144276556</v>
+        <v>0.170498181363677</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2039473042766958</v>
+        <v>0.1987432813464344</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1951471874716676</v>
+        <v>0.197014156926787</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1957011798365135</v>
+        <v>0.2016376069202177</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2580366390000441</v>
+        <v>0.2574476346006919</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1865279364259194</v>
+        <v>0.1866485148912408</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2161296946218195</v>
+        <v>0.2174500613957299</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.1244848705957655</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.152994997574383</v>
+        <v>0.1529949975743829</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1736210864821798</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09362383560677377</v>
+        <v>0.09407104040414718</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1185736356532395</v>
+        <v>0.1238718454323113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1361512097848363</v>
+        <v>0.1356571776715026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1704394989619953</v>
+        <v>0.1741849673841581</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1249126310795051</v>
+        <v>0.1237294039960424</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1524223777979505</v>
+        <v>0.1554226075618788</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1611842811078512</v>
+        <v>0.1656324375419201</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1889905377044141</v>
+        <v>0.1910991185025569</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2186365114745676</v>
+        <v>0.218023379237356</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2352722581804525</v>
+        <v>0.2375614063290762</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1769208355309793</v>
+        <v>0.1755295816919941</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2017098433298265</v>
+        <v>0.2042878478963805</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.1544450232697047</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1521944540880133</v>
+        <v>0.1521944540880132</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2452699812221665</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1250496935097141</v>
+        <v>0.12277168672384</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1235186745253584</v>
+        <v>0.1207750117392327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1808252723067553</v>
+        <v>0.1810090958700326</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1668822798221658</v>
+        <v>0.1693147895405347</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1480766176402464</v>
+        <v>0.1477552888693072</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1431376024075177</v>
+        <v>0.1447132366616173</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1878803186987418</v>
+        <v>0.1914432560620032</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1881977696189082</v>
+        <v>0.1863771196018814</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3155073045482157</v>
+        <v>0.3235716772621299</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2777001419859712</v>
+        <v>0.2759405635264831</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2079349506490097</v>
+        <v>0.2085534531134219</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1988291899224655</v>
+        <v>0.198888661286532</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1330741576183511</v>
+        <v>0.1322439133564429</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1518375522117361</v>
+        <v>0.1503793312365524</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1669128951208814</v>
+        <v>0.1653523539068827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1912531140065292</v>
+        <v>0.1897782884903454</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1535947380720058</v>
+        <v>0.1525431632381449</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1729510403235683</v>
+        <v>0.1729976213064141</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1761823984659858</v>
+        <v>0.1762811284058488</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1973245876744664</v>
+        <v>0.196244854280945</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2205629807905803</v>
+        <v>0.222463484543871</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2372645502507617</v>
+        <v>0.2370051749829972</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1898308021641466</v>
+        <v>0.186730915674903</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2079501725324646</v>
+        <v>0.2070098199523366</v>
       </c>
     </row>
     <row r="16">
@@ -940,19 +940,19 @@
         <v>0.13918151083419</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1428038441061288</v>
+        <v>0.1428038441061287</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.1889300653452648</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1828922603862766</v>
+        <v>0.1828922603862767</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1662072130628147</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.1666150660931215</v>
+        <v>0.1666150660931214</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1131353988290812</v>
+        <v>0.1145997128778701</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.115257325696942</v>
+        <v>0.1143396336378196</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1591940251135465</v>
+        <v>0.1579772157972107</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1624418602170087</v>
+        <v>0.1608872695203743</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.146868814973114</v>
+        <v>0.1470221490228491</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1494080567424858</v>
+        <v>0.1492603312661836</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1674137721263247</v>
+        <v>0.1709344566624565</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1737933322732223</v>
+        <v>0.1771540575458637</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2199104739728836</v>
+        <v>0.2153297369796151</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2059685001016496</v>
+        <v>0.2033187557525481</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1883140375002876</v>
+        <v>0.1873153646822943</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1842905496909249</v>
+        <v>0.1834412100647151</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06682357949457468</v>
+        <v>0.06704223826537306</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.017274908145972</v>
+        <v>0.01797081718178779</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1696034798465405</v>
+        <v>0.1704693544541079</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1168786860427611</v>
+        <v>0.1176414038986095</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1557660994885929</v>
+        <v>0.152547334234958</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1001806670508537</v>
+        <v>0.09939501765049515</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1410457927015205</v>
+        <v>0.1405508785716997</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08415854504918172</v>
+        <v>0.09066454341910898</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2233743872521026</v>
+        <v>0.2201720596508664</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.160892278546507</v>
+        <v>0.1592358600253401</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1967530866363128</v>
+        <v>0.1965436760247463</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1383155475062935</v>
+        <v>0.1362821864023144</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1328475642601772</v>
+        <v>0.1306952832837057</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1391566491813696</v>
+        <v>0.1395042730587136</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1761740256178504</v>
+        <v>0.1774536681202581</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1773060545490182</v>
+        <v>0.177460991895001</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1583122726279343</v>
+        <v>0.1585964640914685</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1621414346046916</v>
+        <v>0.1630506071023511</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1566204559563806</v>
+        <v>0.1565252183119971</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1649884770191695</v>
+        <v>0.1648889624826325</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2029735445504346</v>
+        <v>0.2037150709237006</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1993383095075961</v>
+        <v>0.1995139739392499</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1772552975886898</v>
+        <v>0.1765331728523963</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1792066520580713</v>
+        <v>0.179221388346662</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>54876</v>
+        <v>53788</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>72549</v>
+        <v>74171</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>40332</v>
+        <v>41599</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>94377</v>
+        <v>94133</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>101232</v>
+        <v>101698</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>176316</v>
+        <v>176896</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>87512</v>
+        <v>85279</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>107281</v>
+        <v>108307</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>67919</v>
+        <v>69979</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>125865</v>
+        <v>125577</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>144773</v>
+        <v>144867</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>224239</v>
+        <v>225609</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35317</v>
+        <v>35486</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>57296</v>
+        <v>59856</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>50685</v>
+        <v>50502</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>72004</v>
+        <v>73586</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>93622</v>
+        <v>92735</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>138045</v>
+        <v>140762</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>60803</v>
+        <v>62481</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>91322</v>
+        <v>92341</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>81392</v>
+        <v>81164</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>99393</v>
+        <v>100360</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>132602</v>
+        <v>131559</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>182683</v>
+        <v>185018</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>65265</v>
+        <v>64076</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>58253</v>
+        <v>56959</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>30039</v>
+        <v>30070</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>31290</v>
+        <v>31746</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>101882</v>
+        <v>101661</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>94343</v>
+        <v>95382</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>98057</v>
+        <v>99917</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>88756</v>
+        <v>87898</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>52413</v>
+        <v>53753</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52068</v>
+        <v>51738</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>143067</v>
+        <v>143492</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>131050</v>
+        <v>131089</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>152987</v>
+        <v>152033</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>171735</v>
+        <v>170086</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>137849</v>
+        <v>136561</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>164457</v>
+        <v>163189</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>303429</v>
+        <v>301351</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>344335</v>
+        <v>344428</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>202546</v>
+        <v>202659</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>223183</v>
+        <v>221962</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>182158</v>
+        <v>183727</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>204022</v>
+        <v>203799</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>375013</v>
+        <v>368890</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>414016</v>
+        <v>412144</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>70224</v>
+        <v>71133</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>65462</v>
+        <v>64941</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>117524</v>
+        <v>116626</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>134965</v>
+        <v>133673</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>199587</v>
+        <v>199796</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>208994</v>
+        <v>208787</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>103915</v>
+        <v>106100</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>98708</v>
+        <v>100617</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>162348</v>
+        <v>158966</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>171129</v>
+        <v>168927</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>255909</v>
+        <v>254552</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>257788</v>
+        <v>256600</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>19188</v>
+        <v>19251</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4098</v>
+        <v>4263</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>183515</v>
+        <v>184452</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>98598</v>
+        <v>99242</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>213270</v>
+        <v>208863</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>108278</v>
+        <v>107429</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>40501</v>
+        <v>40358</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19965</v>
+        <v>21508</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>241697</v>
+        <v>238232</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>135728</v>
+        <v>134331</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>269388</v>
+        <v>269102</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>149495</v>
+        <v>147297</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>449785</v>
+        <v>442498</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>478811</v>
+        <v>480007</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>622175</v>
+        <v>626695</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>643989</v>
+        <v>644551</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1095096</v>
+        <v>1097062</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1146807</v>
+        <v>1153237</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>530273</v>
+        <v>529951</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>567693</v>
+        <v>567351</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>716821</v>
+        <v>719439</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>724011</v>
+        <v>724649</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1226131</v>
+        <v>1221136</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1267507</v>
+        <v>1267611</v>
       </c>
     </row>
     <row r="32">
